--- a/scenarios/cough/processes/PrevMed.xlsx
+++ b/scenarios/cough/processes/PrevMed.xlsx
@@ -249,7 +249,7 @@
     <t xml:space="preserve">Ja, das interessiert mich. </t>
   </si>
   <si>
-    <t xml:space="preserve">IF [time] == 'few_days' THEN GO(wait) ELSE GO(prod_matrix)</t>
+    <t xml:space="preserve">IF ([time] == few_days) THEN GO(wait) ELSE GO(prod_matrix)</t>
   </si>
   <si>
     <t xml:space="preserve">PrevNeg1</t>
@@ -298,7 +298,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">[category] = TO_TEXT(SELECT a.CategoryPrevMed FROM Products p JOIN API a ON p.API == a.Name WHERE p.ID == [</t>
+      <t xml:space="preserve">category = TO_TEXT(SELECT a.CategoryPrevMed FROM Products p JOIN API a ON p.API == a.Name WHERE p.ID == [</t>
     </r>
     <r>
       <rPr>
@@ -317,7 +317,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">]), SAVE(category), IF [category] == '1' THEN GO(no_better_med) ELIF [category] == '1C' THEN GO(best_calmer) ELSE GO(transfer)</t>
+      <t xml:space="preserve">]), SAVE(category), IF ([category] == '1') THEN GO(no_better_med) ELIF ([category] == '1C') THEN GO(best_calmer) ELSE GO(transfer)</t>
     </r>
   </si>
   <si>
@@ -343,7 +343,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">IF [time] ==</t>
+      <t xml:space="preserve">IF ([time] ==</t>
     </r>
     <r>
       <rPr>
@@ -372,7 +372,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">'</t>
+      <t xml:space="preserve">')</t>
     </r>
     <r>
       <rPr>
@@ -618,7 +618,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
@@ -811,8 +811,8 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/scenarios/cough/processes/PrevMed.xlsx
+++ b/scenarios/cough/processes/PrevMed.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="93">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -381,7 +381,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> THEN LOAD(Explanation), JUMP(Safety) ELSE JUMP(Explanation)</t>
+      <t xml:space="preserve"> THEN (LOAD(Explanation), JUMP(Safety)) ELSE JUMP(Explanation)</t>
     </r>
   </si>
   <si>
@@ -407,6 +407,9 @@
   </si>
   <si>
     <t xml:space="preserve">no_better_med</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
   </si>
   <si>
     <t xml:space="preserve">Ehrlich gesagt, hätte ich dir das gleiche Produkt empfohlen. Ich würde es an deiner Stelle also weiter nehmen, bis sich der Husten komplett beruhigt hat. Wenn der Husten so stark ist, dass er dich abends vom Schlafen abhält, kannst du vor dem Schlafen auch einen Hustenstiller einnehmen. Tagsüber solltest du weiterhin den Husten-Löser einnehmen, den du bereits anwendest. </t>
@@ -812,11 +815,12 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="50.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.02"/>
@@ -1251,22 +1255,26 @@
         <v>80</v>
       </c>
       <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
+      <c r="C27" s="12" t="s">
+        <v>81</v>
+      </c>
       <c r="D27" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
+      <c r="C28" s="12" t="s">
+        <v>81</v>
+      </c>
       <c r="D28" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E28" s="24" t="s">
         <v>15</v>
@@ -1274,16 +1282,16 @@
     </row>
     <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E29" s="6"/>
     </row>
@@ -1294,10 +1302,10 @@
         <v>11</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1307,10 +1315,10 @@
         <v>11</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/scenarios/cough/processes/PrevMed.xlsx
+++ b/scenarios/cough/processes/PrevMed.xlsx
@@ -159,7 +159,7 @@
     <t xml:space="preserve">Der genaue Name fällt mir leider gerade nicht ein. </t>
   </si>
   <si>
-    <t xml:space="preserve">GO(prev_brand_NO)</t>
+    <t xml:space="preserve">GO(prev_brand_no)</t>
   </si>
   <si>
     <t xml:space="preserve">prev_brand</t>
@@ -391,6 +391,9 @@
     <t xml:space="preserve">weniger als 1 Woche</t>
   </si>
   <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
     <t xml:space="preserve">Man muss dem Husten-Medikamenten generell zwei-drei Tage Zeit geben um ihre Wirkung zu entfalten. </t>
   </si>
   <si>
@@ -407,9 +410,6 @@
   </si>
   <si>
     <t xml:space="preserve">no_better_med</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
   </si>
   <si>
     <t xml:space="preserve">Ehrlich gesagt, hätte ich dir das gleiche Produkt empfohlen. Ich würde es an deiner Stelle also weiter nehmen, bis sich der Husten komplett beruhigt hat. Wenn der Husten so stark ist, dass er dich abends vom Schlafen abhält, kannst du vor dem Schlafen auch einen Hustenstiller einnehmen. Tagsüber solltest du weiterhin den Husten-Löser einnehmen, den du bereits anwendest. </t>
@@ -814,8 +814,8 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -921,7 +921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="15" t="s">
@@ -1211,10 +1211,10 @@
         <v>74</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>63</v>
@@ -1223,10 +1223,10 @@
     </row>
     <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>9</v>
@@ -1234,7 +1234,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="23"/>
       <c r="F25" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1244,7 +1244,7 @@
         <v>11</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E26" s="24" t="s">
         <v>15</v>
@@ -1252,11 +1252,11 @@
     </row>
     <row r="27" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>82</v>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>85</v>

--- a/scenarios/cough/processes/PrevMed.xlsx
+++ b/scenarios/cough/processes/PrevMed.xlsx
@@ -298,7 +298,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">category = TO_TEXT(SELECT a.CategoryPrevMed FROM Products p JOIN API a ON p.API == a.Name WHERE p.ID == [</t>
+      <t xml:space="preserve">category = TO_TEXT(SELECT a.CategoryPrevMed FROM Products p JOIN API a ON p.APIID == a.ID WHERE p.ID == [</t>
     </r>
     <r>
       <rPr>
@@ -814,8 +814,8 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/scenarios/cough/processes/PrevMed.xlsx
+++ b/scenarios/cough/processes/PrevMed.xlsx
@@ -61,37 +61,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="G18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Tamim:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">wird nicht benutzt </t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -330,7 +305,7 @@
     <t xml:space="preserve">Produkt nochmal kaufen</t>
   </si>
   <si>
-    <t xml:space="preserve">P</t>
+    <t xml:space="preserve">C</t>
   </si>
   <si>
     <t xml:space="preserve">Zum fortfahren, füge das Medikament einfach zum Einkaufswagen hinzu. Am Ende sprechen wir noch über das Produkt und wie du es anwendest.</t>
@@ -353,7 +328,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> '</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -372,7 +347,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">')</t>
+      <t xml:space="preserve">)</t>
     </r>
     <r>
       <rPr>
@@ -391,9 +366,6 @@
     <t xml:space="preserve">weniger als 1 Woche</t>
   </si>
   <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
     <t xml:space="preserve">Man muss dem Husten-Medikamenten generell zwei-drei Tage Zeit geben um ihre Wirkung zu entfalten. </t>
   </si>
   <si>
@@ -453,7 +425,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -516,13 +488,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -814,8 +779,8 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1211,10 +1176,10 @@
         <v>74</v>
       </c>
       <c r="C24" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>63</v>
@@ -1223,10 +1188,10 @@
     </row>
     <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>9</v>
@@ -1234,7 +1199,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="23"/>
       <c r="F25" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1244,7 +1209,7 @@
         <v>11</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" s="24" t="s">
         <v>15</v>
@@ -1252,29 +1217,29 @@
     </row>
     <row r="27" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D27" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="24" t="s">
         <v>82</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E28" s="24" t="s">
         <v>15</v>
@@ -1282,16 +1247,16 @@
     </row>
     <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>87</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E29" s="6"/>
     </row>
@@ -1302,10 +1267,10 @@
         <v>11</v>
       </c>
       <c r="D30" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1315,10 +1280,10 @@
         <v>11</v>
       </c>
       <c r="D31" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/scenarios/cough/processes/PrevMed.xlsx
+++ b/scenarios/cough/processes/PrevMed.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamim\Documents\GitHub\dein-apotheker-scenarios\scenarios\cough\processes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27523EAE-4314-4A19-B2A3-F20464D5BC6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView minimized="1" xWindow="2606" yWindow="2606" windowWidth="11023" windowHeight="6925" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="7 PrevMed" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="7 PrevMed" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author> </author>
+    <author/>
   </authors>
   <commentList>
-    <comment ref="B11" authorId="0">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -35,7 +40,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">[Kommentarthread]
+          <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     Result depending on product
@@ -44,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0">
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -54,7 +59,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">[Kommentarthread]
+          <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     Vermerk für später</t>
@@ -68,202 +73,202 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Query</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2) Mit welchem Medikament hast du schon gute Erfahrung gemacht?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hast du gegen deinen Husten schon ein Medikament eingenommen?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ja, willst du wissen was ich genommen habe?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(prev_prod)</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>prev</t>
+  </si>
+  <si>
+    <t>2) Mit welchem Medikament hast du schon gute Erfahrung gemacht?</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Hast du gegen deinen Husten schon ein Medikament eingenommen?</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Ja, willst du wissen was ich genommen habe?</t>
+  </si>
+  <si>
+    <t>GO(prev_prod)</t>
   </si>
   <si>
     <t xml:space="preserve">Nein noch nicht. </t>
   </si>
   <si>
-    <t xml:space="preserve">GO(start)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prev_prod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wie hieß denn das Medikament Dass du eingenommen hast?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freitext-Eingabe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(prev_brand)</t>
+    <t>GO(start)</t>
+  </si>
+  <si>
+    <t>prev_prod</t>
+  </si>
+  <si>
+    <t>Medication</t>
+  </si>
+  <si>
+    <t>Wie hieß denn das Medikament Dass du eingenommen hast?</t>
+  </si>
+  <si>
+    <t>Freitext-Eingabe</t>
+  </si>
+  <si>
+    <t>GO(prev_brand)</t>
   </si>
   <si>
     <t xml:space="preserve">Der genaue Name fällt mir leider gerade nicht ein. </t>
   </si>
   <si>
-    <t xml:space="preserve">GO(prev_brand_no)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prev_brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medication - Brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ups. Da hat leider was nicht funktioniert. Lass uns mal zusammen danach suchen. Von welcher der folgenden Marken war dein Hustenmedikament?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(prev_final)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT * FROM Brands WHERE include == 'ja'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PrevBrand]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prev_brand_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lass uns mal zusammen danach suchen. Von welcher der folgenden Marken war dein Hustenmedikament?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prev_final</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medication - Product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welches Produkt von der Marke war es?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(prev_eff)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE BrandID == [PrevBrand]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PrevProduct]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prev_eff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medication - Effekt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hat dir das Medikament geholfen und nimmst du es noch ein?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nein es hat mir nicht geholfen und ich nehme es nicht mehr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(prev_neg)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nein hilft mir nicht, aber ich nehme es trotzdem noch.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ja es hat mir geholfen, aber ist jetzt alle.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(prev_pos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ja es hilft mir, ich nehme es noch, aber es ist nicht stark genug.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prev_neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Was kann ich für dich tun? (schlecht)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soll ich dir erzählen, warum ich glaube, dass du mit dem Produkt nicht zufrieden warst?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PrevMedFeedback]</t>
+    <t>GO(prev_brand_no)</t>
+  </si>
+  <si>
+    <t>prev_brand</t>
+  </si>
+  <si>
+    <t>Medication - Brand</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Ups. Da hat leider was nicht funktioniert. Lass uns mal zusammen danach suchen. Von welcher der folgenden Marken war dein Hustenmedikament?</t>
+  </si>
+  <si>
+    <t>GO(prev_final)</t>
+  </si>
+  <si>
+    <t>SELECT * FROM Brands WHERE include == 'ja'</t>
+  </si>
+  <si>
+    <t>[PrevBrand]</t>
+  </si>
+  <si>
+    <t>prev_brand_no</t>
+  </si>
+  <si>
+    <t>Lass uns mal zusammen danach suchen. Von welcher der folgenden Marken war dein Hustenmedikament?</t>
+  </si>
+  <si>
+    <t>prev_final</t>
+  </si>
+  <si>
+    <t>Medication - Product</t>
+  </si>
+  <si>
+    <t>Welches Produkt von der Marke war es?</t>
+  </si>
+  <si>
+    <t>GO(prev_eff)</t>
+  </si>
+  <si>
+    <t>SELECT * FROM Products WHERE BrandID == [PrevBrand]</t>
+  </si>
+  <si>
+    <t>[PrevProduct]</t>
+  </si>
+  <si>
+    <t>prev_eff</t>
+  </si>
+  <si>
+    <t>Medication - Effekt</t>
+  </si>
+  <si>
+    <t>Hat dir das Medikament geholfen und nimmst du es noch ein?</t>
+  </si>
+  <si>
+    <t>Nein es hat mir nicht geholfen und ich nehme es nicht mehr.</t>
+  </si>
+  <si>
+    <t>GO(prev_neg)</t>
+  </si>
+  <si>
+    <t>Nein hilft mir nicht, aber ich nehme es trotzdem noch.</t>
+  </si>
+  <si>
+    <t>Ja es hat mir geholfen, aber ist jetzt alle.</t>
+  </si>
+  <si>
+    <t>GO(prev_pos)</t>
+  </si>
+  <si>
+    <t>Ja es hilft mir, ich nehme es noch, aber es ist nicht stark genug.</t>
+  </si>
+  <si>
+    <t>prev_neg</t>
+  </si>
+  <si>
+    <t>Was kann ich für dich tun? (schlecht)</t>
+  </si>
+  <si>
+    <t>Soll ich dir erzählen, warum ich glaube, dass du mit dem Produkt nicht zufrieden warst?</t>
+  </si>
+  <si>
+    <t>[PrevMedFeedback]</t>
   </si>
   <si>
     <t xml:space="preserve">Ja, das interessiert mich. </t>
   </si>
   <si>
-    <t xml:space="preserve">IF ([time] == few_days) THEN GO(wait) ELSE GO(prod_matrix)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrevNeg1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ne, ist jetzt egal. Lass uns lieber darüber reden, was du mir stattdessen empfehlen würdest.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrevNeg2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prev_pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Was kann ich für dich tun? (gut)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Was kann ich jetzt für dich tun?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ich möchte das Produkt nochmal kaufen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(buy_prev)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrevPos1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Was denkst du über das Produkt? Würdest du es auch empfehlen?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(prod_matrix)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrevPos2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gibt es ein noch besseres Produkt?</t>
+    <t>IF ([time] == few_days) THEN GO(wait) ELSE GO(prod_matrix)</t>
+  </si>
+  <si>
+    <t>PrevNeg1</t>
+  </si>
+  <si>
+    <t>Ne, ist jetzt egal. Lass uns lieber darüber reden, was du mir stattdessen empfehlen würdest.</t>
+  </si>
+  <si>
+    <t>PrevNeg2</t>
+  </si>
+  <si>
+    <t>prev_pos</t>
+  </si>
+  <si>
+    <t>Was kann ich für dich tun? (gut)</t>
+  </si>
+  <si>
+    <t>Was kann ich jetzt für dich tun?</t>
+  </si>
+  <si>
+    <t>Ich möchte das Produkt nochmal kaufen.</t>
+  </si>
+  <si>
+    <t>GO(buy_prev)</t>
+  </si>
+  <si>
+    <t>PrevPos1</t>
+  </si>
+  <si>
+    <t>Was denkst du über das Produkt? Würdest du es auch empfehlen?</t>
+  </si>
+  <si>
+    <t>GO(prod_matrix)</t>
+  </si>
+  <si>
+    <t>PrevPos2</t>
+  </si>
+  <si>
+    <t>Gibt es ein noch besseres Produkt?</t>
   </si>
   <si>
     <r>
@@ -273,7 +278,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">category = TO_TEXT(SELECT a.CategoryPrevMed FROM Products p JOIN API a ON p.APIID == a.ID WHERE p.ID == [</t>
+      <t>category = TO_TEXT(SELECT a.CategoryPrevMed FROM Products p JOIN API a ON p.APIID == a.ID WHERE p.ID == [</t>
     </r>
     <r>
       <rPr>
@@ -283,7 +288,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">PrevProduct</t>
+      <t>PrevProduct</t>
     </r>
     <r>
       <rPr>
@@ -292,23 +297,23 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">]), SAVE(category), IF ([category] == '1') THEN GO(no_better_med) ELIF ([category] == '1C') THEN GO(best_calmer) ELSE GO(transfer)</t>
+      <t>]), SAVE(category), IF ([category] == '1') THEN GO(no_better_med) ELIF ([category] == '1C') THEN GO(best_calmer) ELSE GO(transfer)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">PrevPos3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buy_prev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produkt nochmal kaufen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zum fortfahren, füge das Medikament einfach zum Einkaufswagen hinzu. Am Ende sprechen wir noch über das Produkt und wie du es anwendest.</t>
+    <t>PrevPos3</t>
+  </si>
+  <si>
+    <t>buy_prev</t>
+  </si>
+  <si>
+    <t>Produkt nochmal kaufen</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Zum fortfahren, füge das Medikament einfach zum Einkaufswagen hinzu. Am Ende sprechen wir noch über das Produkt und wie du es anwendest.</t>
   </si>
   <si>
     <r>
@@ -318,7 +323,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">IF ([time] ==</t>
+      <t>IF ([time] ==</t>
     </r>
     <r>
       <rPr>
@@ -337,7 +342,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">few_days</t>
+      <t>few_days</t>
     </r>
     <r>
       <rPr>
@@ -347,7 +352,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">)</t>
+      <t>)</t>
     </r>
     <r>
       <rPr>
@@ -360,93 +365,74 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">wait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weniger als 1 Woche</t>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>weniger als 1 Woche</t>
   </si>
   <si>
     <t xml:space="preserve">Man muss dem Husten-Medikamenten generell zwei-drei Tage Zeit geben um ihre Wirkung zu entfalten. </t>
   </si>
   <si>
-    <t xml:space="preserve">prod_matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProductMatrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT [PrevMedFeedback] FROM APIFeedback WHERE CategoryPrevMed == [category]</t>
+    <t>prod_matrix</t>
+  </si>
+  <si>
+    <t>ProductMatrix</t>
   </si>
   <si>
     <t xml:space="preserve">okay. </t>
   </si>
   <si>
-    <t xml:space="preserve">no_better_med</t>
+    <t>no_better_med</t>
   </si>
   <si>
     <t xml:space="preserve">Ehrlich gesagt, hätte ich dir das gleiche Produkt empfohlen. Ich würde es an deiner Stelle also weiter nehmen, bis sich der Husten komplett beruhigt hat. Wenn der Husten so stark ist, dass er dich abends vom Schlafen abhält, kannst du vor dem Schlafen auch einen Hustenstiller einnehmen. Tagsüber solltest du weiterhin den Husten-Löser einnehmen, den du bereits anwendest. </t>
   </si>
   <si>
-    <t xml:space="preserve">JUMP(APICalmer)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">best_calmer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das kommt ganz darauf an - Um den Hustenreiz zu unterdrücken, hast du bereits das wirksamste Arzneimittel eingenommen. Ich empfehle dir aber tagsüber einen Hustenlöser einzunehmen, damit dein Körper den Schleim abhusten kann. Ansonsten kann sich der festsitzende Schleim in deinen Atemwegen entzünden. Hustenstiller sind eine gute Ergänzung, die man einmal täglich vor dem Schlafengehen einnehmen kann, damit der Schlaf nicht durch den Husten gestört wird. Wir können gerne schauen, ob wir ein für dich passenden Hustenlöser finden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Um das optimale Medikament für dich zu finden, werde ich dir jetzt ein paar Fragen stellen. Bist du bereit?</t>
+    <t>JUMP(APICalmer)</t>
+  </si>
+  <si>
+    <t>best_calmer</t>
+  </si>
+  <si>
+    <t>Das kommt ganz darauf an - Um den Hustenreiz zu unterdrücken, hast du bereits das wirksamste Arzneimittel eingenommen. Ich empfehle dir aber tagsüber einen Hustenlöser einzunehmen, damit dein Körper den Schleim abhusten kann. Ansonsten kann sich der festsitzende Schleim in deinen Atemwegen entzünden. Hustenstiller sind eine gute Ergänzung, die man einmal täglich vor dem Schlafengehen einnehmen kann, damit der Schlaf nicht durch den Husten gestört wird. Wir können gerne schauen, ob wir ein für dich passenden Hustenlöser finden.</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Um das optimale Medikament für dich zu finden, werde ich dir jetzt ein paar Fragen stellen. Bist du bereit?</t>
   </si>
   <si>
     <t xml:space="preserve">Ja, prima. Los geht's! </t>
   </si>
   <si>
-    <t xml:space="preserve">JUMP(API)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ich habe es eilig. Können wir es kurz machen?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUMP(Fasttrack)</t>
+    <t>JUMP(API)</t>
+  </si>
+  <si>
+    <t>Ich habe es eilig. Können wir es kurz machen?</t>
+  </si>
+  <si>
+    <t>JUMP(Fasttrack)</t>
+  </si>
+  <si>
+    <t>{SELECT [PrevMedFeedback] FROM APIFeedback WHERE CategoryPrevMed == [category]}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -456,7 +442,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -464,7 +450,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -513,14 +499,14 @@
     </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFF4B183"/>
       </left>
@@ -535,7 +521,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFF4B183"/>
       </left>
@@ -546,169 +532,119 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="15"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="MetaData_Columns" xfId="20"/>
+  <cellStyles count="2">
+    <cellStyle name="MetaData_Columns" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -767,34 +703,345 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF3652A0"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="50.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="58.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
+    <col min="1" max="1" width="21.61328125" customWidth="1"/>
+    <col min="2" max="2" width="19.69140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50.15234375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="58.61328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.3046875" customWidth="1"/>
+    <col min="1024" max="1024" width="9.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -817,7 +1064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -832,7 +1079,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="9" t="s">
@@ -845,7 +1092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
@@ -858,7 +1105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -873,20 +1120,20 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="15" t="s">
@@ -899,7 +1146,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
@@ -918,11 +1165,11 @@
       <c r="F8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
@@ -941,11 +1188,11 @@
       <c r="F9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
@@ -964,11 +1211,11 @@
       <c r="F10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
@@ -983,7 +1230,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9" t="s">
@@ -996,7 +1243,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9" t="s">
@@ -1009,7 +1256,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9" t="s">
@@ -1022,7 +1269,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9" t="s">
@@ -1035,7 +1282,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>47</v>
       </c>
@@ -1049,11 +1296,11 @@
         <v>49</v>
       </c>
       <c r="E16" s="6"/>
-      <c r="G16" s="0" t="s">
+      <c r="G16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="7" t="s">
@@ -1065,11 +1312,11 @@
       <c r="E17" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="7" t="s">
@@ -1085,7 +1332,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
         <v>56</v>
       </c>
@@ -1099,11 +1346,11 @@
         <v>58</v>
       </c>
       <c r="E19" s="6"/>
-      <c r="G19" s="0" t="s">
+      <c r="G19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9" t="s">
@@ -1119,7 +1366,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9" t="s">
@@ -1131,11 +1378,11 @@
       <c r="E21" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9" t="s">
@@ -1151,7 +1398,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>68</v>
       </c>
@@ -1168,7 +1415,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>73</v>
       </c>
@@ -1186,7 +1433,7 @@
       </c>
       <c r="F24" s="22"/>
     </row>
-    <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>76</v>
       </c>
@@ -1196,116 +1443,110 @@
       <c r="C25" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="E25" s="23"/>
-      <c r="F25" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" s="24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:7" ht="102" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="12" t="s">
         <v>70</v>
       </c>
       <c r="D27" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="24" t="s">
+    </row>
+    <row r="28" spans="1:7" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="A28" s="4" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="12" t="s">
         <v>70</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E28" s="24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>86</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="25"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="7"/>
       <c r="B33" s="26"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/scenarios/cough/processes/PrevMed.xlsx
+++ b/scenarios/cough/processes/PrevMed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamim\Documents\GitHub\dein-apotheker-scenarios\scenarios\cough\processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27523EAE-4314-4A19-B2A3-F20464D5BC6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4BFB86-4C00-4B00-B117-7985C12C6D73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2606" yWindow="2606" windowWidth="11023" windowHeight="6925" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7 PrevMed" sheetId="1" r:id="rId1"/>
@@ -1026,8 +1026,8 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/scenarios/cough/processes/PrevMed.xlsx
+++ b/scenarios/cough/processes/PrevMed.xlsx
@@ -390,6 +390,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">category = TO_TEXT(SELECT a.CategoryPrevMed FROM Products p JOIN API a ON p.APIID == a.ID WHERE p.ID == [</t>
     </r>
@@ -399,6 +400,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">PrevProduct</t>
     </r>
@@ -407,6 +409,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">]), </t>
     </r>
@@ -469,7 +472,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -534,17 +537,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -838,11 +830,11 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.38671875" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.7"/>

--- a/scenarios/cough/processes/PrevMed.xlsx
+++ b/scenarios/cough/processes/PrevMed.xlsx
@@ -25,7 +25,7 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="B11" authorId="0">
+    <comment ref="B7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0">
+    <comment ref="D9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -122,33 +122,12 @@
     <t xml:space="preserve">Medication</t>
   </si>
   <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wie hieß denn das Medikament Dass du eingenommen hast?</t>
   </si>
   <si>
-    <t xml:space="preserve">Freitext-Eingabe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(prev_brand)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der genaue Name fällt mir leider gerade nicht ein. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(prev_brand_no)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prev_brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medication - Brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ups. Da hat leider was nicht funktioniert. Lass uns mal zusammen danach suchen. Von welcher der folgenden Marken war dein Hustenmedikament?</t>
-  </si>
-  <si>
     <t xml:space="preserve">GO(prev_final)</t>
   </si>
   <si>
@@ -156,12 +135,6 @@
   </si>
   <si>
     <t xml:space="preserve">[PrevBrand]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prev_brand_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lass uns mal zusammen danach suchen. Von welcher der folgenden Marken war dein Hustenmedikament?</t>
   </si>
   <si>
     <t xml:space="preserve">prev_final</t>
@@ -520,13 +493,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFBFBFBF"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -534,6 +500,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -637,7 +610,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -690,56 +663,40 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -828,10 +785,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -909,7 +866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -917,327 +874,321 @@
         <v>17</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>29</v>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="0" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="E11" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="E12" s="6"/>
+      <c r="G12" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G13" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="G16" s="0" t="s">
+      <c r="E15" s="6"/>
+      <c r="G15" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="G19" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="19" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="D23" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="22" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="11" t="s">
         <v>74</v>
       </c>
+      <c r="B24" s="11"/>
       <c r="C24" s="12" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="23"/>
-    </row>
-    <row r="25" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E24" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>76</v>
       </c>
@@ -1247,107 +1198,53 @@
       <c r="C25" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="24"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
+      <c r="E26" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="6" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4"/>
-      <c r="B32" s="26"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7"/>
-      <c r="B33" s="27"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-    </row>
+    <row r="28" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4"/>
+      <c r="B28" s="22"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7"/>
+      <c r="B29" s="23"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/scenarios/cough/processes/PrevMed.xlsx
+++ b/scenarios/cough/processes/PrevMed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamim\Documents\GitHub\dein-apotheker-scenarios\scenarios\cough\processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223361D8-CBE9-4F5E-8187-C7E40E24B210}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85985C6E-260C-4C40-8553-64BF399B2786}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>[PrevMedFeedback]</t>
-  </si>
-  <si>
-    <t>IF ([time] == few_days) THEN GO(wait) ELSE GO(prod_matrix)</t>
   </si>
   <si>
     <t>PrevNeg2</t>
@@ -341,6 +338,9 @@
   </si>
   <si>
     <t xml:space="preserve">Allgemein muss man sagen, dass Husten-Medikamenten  zwei-drei Tage brauchen um zu wirken. </t>
+  </si>
+  <si>
+    <t>category = TO_TEXT(SELECT a.CategoryChoice FROM Products p JOIN API a ON a.ID == p.APIID WHERE p.ID == [PrevProduct]), IF (([category] != 'Calmer') AND ([time] == few_days)) THEN GO(wait) ELSE GO(prod_matrix)</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="15"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -515,9 +515,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -935,8 +932,8 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -995,7 +992,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>12</v>
@@ -1008,7 +1005,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>13</v>
@@ -1025,7 +1022,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>17</v>
@@ -1048,7 +1045,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>22</v>
@@ -1071,7 +1068,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="6"/>
     </row>
@@ -1082,7 +1079,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>27</v>
@@ -1095,7 +1092,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>28</v>
@@ -1112,27 +1109,27 @@
         <v>9</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" s="6"/>
       <c r="G10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>32</v>
+        <v>60</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -1142,27 +1139,27 @@
         <v>11</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>33</v>
+      <c r="G12" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="6"/>
       <c r="G13" t="s">
@@ -1176,13 +1173,13 @@
         <v>11</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>37</v>
+        <v>66</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -1192,47 +1189,47 @@
         <v>11</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="G15" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>43</v>
-      </c>
       <c r="C16" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="18"/>
+        <v>69</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>44</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>45</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="19"/>
+        <v>45</v>
+      </c>
+      <c r="E17" s="18"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
@@ -1241,54 +1238,54 @@
         <v>11</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="102" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="19" t="s">
         <v>49</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" s="6"/>
     </row>
@@ -1299,34 +1296,34 @@
         <v>11</v>
       </c>
       <c r="D22" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="22"/>
+      <c r="B24" s="21"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
-      <c r="B25" s="23"/>
+      <c r="B25" s="22"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
     </row>

--- a/scenarios/cough/processes/PrevMed.xlsx
+++ b/scenarios/cough/processes/PrevMed.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t xml:space="preserve">Output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popup</t>
   </si>
   <si>
     <t xml:space="preserve">prev</t>
@@ -224,7 +230,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">]); IF [category] == '1' THEN GO(no_better_med) ELIF [category] == '1C' THEN GO(best_calmer) ELSE GO(transfer)</t>
+      <t xml:space="preserve">]);
+IF [category] == '1'
+  THEN GO(no_better_med)
+  ELIF [category] == '1C' THEN GO(best_calmer)
+  ELSE GO(transfer)</t>
     </r>
   </si>
   <si>
@@ -413,7 +423,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,7 +433,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF3652A0"/>
-        <bgColor rgb="FF666699"/>
+        <bgColor rgb="FF2A6099"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2A6099"/>
+        <bgColor rgb="FF3652A0"/>
       </patternFill>
     </fill>
     <fill>
@@ -528,11 +544,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -570,10 +590,6 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -638,7 +654,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF2A6099"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -682,13 +698,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.38671875" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.7"/>
@@ -721,363 +737,369 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="58.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
+      <c r="D8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="G10" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="E11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9" t="s">
+      <c r="G12" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9" t="s">
+      <c r="D13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="G13" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="G10" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7" t="s">
+      <c r="D17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="G13" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="18"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="6"/>
+      <c r="D21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>68</v>
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>70</v>
+        <v>13</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="21"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="22"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
